--- a/Model_Fisier_Inserare_Date.xlsx
+++ b/Model_Fisier_Inserare_Date.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d5abced0e4cadf78/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Alex-VirtualAssistant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="11_F25DC773A252ABDACC10488B191969A85ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EB72E84-7E2D-4978-B51C-A4CFFF32B56F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EC302E-760A-4F2C-8B15-3E57372C8F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5160" yWindow="915" windowWidth="28800" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>UNIVERSITATEA "ȘTEFAN CEL MARE" DIN SUCEAVA</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>altcineva.cineva@student.usv.ro</t>
+  </si>
+  <si>
+    <t>Sandru</t>
+  </si>
+  <si>
+    <t>Alexandru</t>
+  </si>
+  <si>
+    <t>alexandru.sandru@student.usv.ro</t>
   </si>
 </sst>
 </file>
@@ -329,8 +338,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{765F7452-42C3-48E1-9BD3-A60A8B7E39BD}" name="Table2" displayName="Table2" ref="A8:G11" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A8:G11" xr:uid="{765F7452-42C3-48E1-9BD3-A60A8B7E39BD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{765F7452-42C3-48E1-9BD3-A60A8B7E39BD}" name="Table2" displayName="Table2" ref="A8:G12" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A8:G12" xr:uid="{765F7452-42C3-48E1-9BD3-A60A8B7E39BD}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{52FA4E9C-EE21-4886-AED6-B977071BBC6F}" name="Nr. Crt." dataDxfId="6">
       <calculatedColumnFormula>ROW()-8</calculatedColumnFormula>
@@ -609,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,16 +759,41 @@
         <v>12</v>
       </c>
     </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <f>ROW()-8</f>
+        <v>4</v>
+      </c>
+      <c r="B12" s="2">
+        <v>66126</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E9" r:id="rId1" xr:uid="{07208A24-6DAB-4C10-84BD-74B8C8A45C3E}"/>
     <hyperlink ref="E10" r:id="rId2" xr:uid="{F5E7B413-435A-431B-8C6C-0A716AE10E2D}"/>
     <hyperlink ref="E11" r:id="rId3" xr:uid="{668DC186-4A19-4361-83FA-4A5FF7C3BB89}"/>
+    <hyperlink ref="E12" r:id="rId4" xr:uid="{65A98C6C-F67D-4879-8225-118AF9C6EED7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>